--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_59__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_59__Reeval_Halton_Modell_1.3.xlsx
@@ -5993,7 +5993,7 @@
                   <c:v>79.00535583496094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.63774108886719</c:v>
+                  <c:v>62.63773345947266</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>76.5325927734375</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>73.58488464355469</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.07199859619141</c:v>
+                  <c:v>85.07200622558594</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>70.47058868408203</c:v>
@@ -6080,7 +6080,7 @@
                   <c:v>90.18173217773438</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>77.22676086425781</c:v>
+                  <c:v>77.22675323486328</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>76.24639892578125</c:v>
@@ -6095,7 +6095,7 @@
                   <c:v>78.02605438232422</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83.52906036376953</c:v>
+                  <c:v>83.52906799316406</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>64.11740875244141</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>45.37178039550781</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>64.85144805908203</c:v>
+                  <c:v>64.8514404296875</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.89873504638672</c:v>
@@ -6170,7 +6170,7 @@
                   <c:v>69.41810607910156</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>83.74893188476562</c:v>
+                  <c:v>83.74893951416016</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>91.84468078613281</c:v>
@@ -6191,7 +6191,7 @@
                   <c:v>53.26937103271484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>76.85183715820312</c:v>
+                  <c:v>76.85182952880859</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>78.54362487792969</c:v>
@@ -6218,7 +6218,7 @@
                   <c:v>86.56726837158203</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>45.10166931152344</c:v>
+                  <c:v>45.10166168212891</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>77.43153381347656</c:v>
@@ -6236,7 +6236,7 @@
                   <c:v>72.79647827148438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>56.24297332763672</c:v>
+                  <c:v>56.24298095703125</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>89.85926055908203</c:v>
@@ -6245,19 +6245,19 @@
                   <c:v>44.73832702636719</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>68.35481262207031</c:v>
+                  <c:v>68.35480499267578</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>78.86771392822266</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>56.23999786376953</c:v>
+                  <c:v>56.24000549316406</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>56.58646392822266</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>77.31189727783203</c:v>
+                  <c:v>77.31190490722656</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>81.46238708496094</c:v>
@@ -7043,7 +7043,7 @@
         <v>58.1033</v>
       </c>
       <c r="F4">
-        <v>62.63774108886719</v>
+        <v>62.63773345947266</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>85.07199859619141</v>
+        <v>85.07200622558594</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>75.6955</v>
       </c>
       <c r="F33">
-        <v>77.22676086425781</v>
+        <v>77.22675323486328</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.0134</v>
       </c>
       <c r="F38">
-        <v>83.52906036376953</v>
+        <v>83.52906799316406</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>56.8273</v>
       </c>
       <c r="F48">
-        <v>64.85144805908203</v>
+        <v>64.8514404296875</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>81.5342</v>
       </c>
       <c r="F63">
-        <v>83.74893188476562</v>
+        <v>83.74893951416016</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>76.1641</v>
       </c>
       <c r="F70">
-        <v>76.85183715820312</v>
+        <v>76.85182952880859</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>40.3913</v>
       </c>
       <c r="F79">
-        <v>45.10166931152344</v>
+        <v>45.10166168212891</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>39.494</v>
       </c>
       <c r="F85">
-        <v>56.24297332763672</v>
+        <v>56.24298095703125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>71.9828</v>
       </c>
       <c r="F88">
-        <v>68.35481262207031</v>
+        <v>68.35480499267578</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>59.318</v>
       </c>
       <c r="F90">
-        <v>56.23999786376953</v>
+        <v>56.24000549316406</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>75.02330000000001</v>
       </c>
       <c r="F92">
-        <v>77.31189727783203</v>
+        <v>77.31190490722656</v>
       </c>
     </row>
     <row r="93" spans="1:6">
